--- a/data/output/FV2410_FV2404/UTILMD/55079.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55079.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16656" uniqueCount="1016">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16677" uniqueCount="1016">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -3237,6 +3237,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U724" totalsRowShown="0">
+  <autoFilter ref="A1:U724"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3526,7 +3556,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U724"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -38837,5 +38870,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55079.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55079.xlsx
@@ -5818,7 +5818,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -6180,7 +6180,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -6326,7 +6326,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -6528,7 +6528,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -6836,7 +6836,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -7036,7 +7036,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -7410,7 +7410,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -7722,7 +7722,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -7922,7 +7922,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -8138,7 +8138,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -8356,7 +8356,7 @@
         <v>923</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -8576,7 +8576,7 @@
         <v>924</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -8792,7 +8792,7 @@
         <v>925</v>
       </c>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -8996,7 +8996,7 @@
         <v>927</v>
       </c>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -9200,7 +9200,7 @@
         <v>929</v>
       </c>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -9404,7 +9404,7 @@
         <v>931</v>
       </c>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -9608,7 +9608,7 @@
         <v>933</v>
       </c>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -9812,7 +9812,7 @@
         <v>934</v>
       </c>
       <c r="L79" s="4"/>
-      <c r="M79" s="2" t="s">
+      <c r="M79" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N79" s="2" t="s">
@@ -10014,7 +10014,7 @@
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -10212,7 +10212,7 @@
         <v>936</v>
       </c>
       <c r="L87" s="4"/>
-      <c r="M87" s="2" t="s">
+      <c r="M87" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N87" s="2" t="s">
@@ -10424,7 +10424,7 @@
         <v>938</v>
       </c>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -10694,7 +10694,7 @@
         <v>939</v>
       </c>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -11114,7 +11114,7 @@
         <v>942</v>
       </c>
       <c r="L104" s="4"/>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -11262,7 +11262,7 @@
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="4"/>
-      <c r="M107" s="2" t="s">
+      <c r="M107" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N107" s="2" t="s">
@@ -11588,7 +11588,7 @@
         <v>944</v>
       </c>
       <c r="L113" s="4"/>
-      <c r="M113" s="2" t="s">
+      <c r="M113" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N113" s="2" t="s">
@@ -11782,54 +11782,54 @@
       </c>
     </row>
     <row r="117" spans="1:22">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="2" t="s">
         <v>1121</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="C117" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D117" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5" t="s">
+      <c r="E117" s="2"/>
+      <c r="F117" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
       <c r="J117" s="6" t="s">
         <v>840</v>
       </c>
-      <c r="K117" s="5" t="s">
+      <c r="K117" s="2" t="s">
         <v>945</v>
       </c>
       <c r="L117" s="7" t="s">
         <v>1016</v>
       </c>
-      <c r="M117" s="5" t="s">
+      <c r="M117" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N117" s="5" t="s">
+      <c r="N117" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="O117" s="5" t="s">
+      <c r="O117" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="P117" s="5"/>
-      <c r="Q117" s="5" t="s">
+      <c r="P117" s="2"/>
+      <c r="Q117" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="R117" s="5"/>
-      <c r="S117" s="5"/>
-      <c r="T117" s="5"/>
+      <c r="R117" s="2"/>
+      <c r="S117" s="2"/>
+      <c r="T117" s="2"/>
       <c r="U117" s="6" t="s">
         <v>1017</v>
       </c>
-      <c r="V117" s="5" t="s">
+      <c r="V117" s="2" t="s">
         <v>945</v>
       </c>
     </row>
@@ -12030,7 +12030,7 @@
         <v>947</v>
       </c>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -12192,7 +12192,7 @@
         <v>948</v>
       </c>
       <c r="L124" s="4"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -12340,7 +12340,7 @@
       </c>
       <c r="K127" s="2"/>
       <c r="L127" s="4"/>
-      <c r="M127" s="2" t="s">
+      <c r="M127" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N127" s="2" t="s">
@@ -12498,7 +12498,7 @@
       </c>
       <c r="K130" s="2"/>
       <c r="L130" s="4"/>
-      <c r="M130" s="2" t="s">
+      <c r="M130" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N130" s="2" t="s">
@@ -12752,7 +12752,7 @@
       </c>
       <c r="K135" s="2"/>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -12898,7 +12898,7 @@
       </c>
       <c r="K138" s="2"/>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -13220,7 +13220,7 @@
         <v>949</v>
       </c>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N144" s="2" t="s">
@@ -13368,7 +13368,7 @@
       </c>
       <c r="K147" s="2"/>
       <c r="L147" s="4"/>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -13530,7 +13530,7 @@
       </c>
       <c r="K150" s="2"/>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -13748,7 +13748,7 @@
         <v>951</v>
       </c>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N154" s="2" t="s">
@@ -13946,7 +13946,7 @@
       </c>
       <c r="K158" s="2"/>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -14300,7 +14300,7 @@
       </c>
       <c r="K165" s="2"/>
       <c r="L165" s="4"/>
-      <c r="M165" s="2" t="s">
+      <c r="M165" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N165" s="2" t="s">
@@ -14444,7 +14444,7 @@
         <v>923</v>
       </c>
       <c r="L168" s="4"/>
-      <c r="M168" s="2" t="s">
+      <c r="M168" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N168" s="2" t="s">
@@ -14594,7 +14594,7 @@
         <v>952</v>
       </c>
       <c r="L171" s="4"/>
-      <c r="M171" s="2" t="s">
+      <c r="M171" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N171" s="2" t="s">
@@ -14756,7 +14756,7 @@
         <v>953</v>
       </c>
       <c r="L174" s="4"/>
-      <c r="M174" s="2" t="s">
+      <c r="M174" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N174" s="2" t="s">
@@ -15242,7 +15242,7 @@
         <v>957</v>
       </c>
       <c r="L183" s="4"/>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N183" s="2" t="s">
@@ -15502,7 +15502,7 @@
       </c>
       <c r="K188" s="2"/>
       <c r="L188" s="4"/>
-      <c r="M188" s="2" t="s">
+      <c r="M188" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N188" s="2" t="s">
@@ -15702,7 +15702,7 @@
       </c>
       <c r="K192" s="2"/>
       <c r="L192" s="4"/>
-      <c r="M192" s="2" t="s">
+      <c r="M192" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N192" s="2" t="s">
@@ -15848,7 +15848,7 @@
       </c>
       <c r="K195" s="2"/>
       <c r="L195" s="4"/>
-      <c r="M195" s="2" t="s">
+      <c r="M195" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N195" s="2" t="s">
@@ -16006,7 +16006,7 @@
       </c>
       <c r="K198" s="2"/>
       <c r="L198" s="4"/>
-      <c r="M198" s="2" t="s">
+      <c r="M198" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N198" s="2" t="s">
@@ -16438,7 +16438,7 @@
       </c>
       <c r="K206" s="2"/>
       <c r="L206" s="4"/>
-      <c r="M206" s="2" t="s">
+      <c r="M206" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N206" s="2" t="s">
@@ -16636,7 +16636,7 @@
         <v>959</v>
       </c>
       <c r="L210" s="4"/>
-      <c r="M210" s="2" t="s">
+      <c r="M210" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N210" s="2" t="s">
@@ -16834,7 +16834,7 @@
       </c>
       <c r="K214" s="2"/>
       <c r="L214" s="4"/>
-      <c r="M214" s="2" t="s">
+      <c r="M214" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N214" s="2" t="s">
@@ -17032,7 +17032,7 @@
         <v>923</v>
       </c>
       <c r="L218" s="4"/>
-      <c r="M218" s="2" t="s">
+      <c r="M218" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N218" s="2" t="s">
@@ -17334,7 +17334,7 @@
       </c>
       <c r="K224" s="2"/>
       <c r="L224" s="4"/>
-      <c r="M224" s="2" t="s">
+      <c r="M224" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N224" s="2" t="s">
@@ -17748,7 +17748,7 @@
         <v>960</v>
       </c>
       <c r="L232" s="4"/>
-      <c r="M232" s="2" t="s">
+      <c r="M232" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N232" s="2" t="s">
@@ -17962,7 +17962,7 @@
       </c>
       <c r="K236" s="2"/>
       <c r="L236" s="4"/>
-      <c r="M236" s="2" t="s">
+      <c r="M236" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N236" s="2" t="s">
@@ -18262,7 +18262,7 @@
       </c>
       <c r="K242" s="2"/>
       <c r="L242" s="4"/>
-      <c r="M242" s="2" t="s">
+      <c r="M242" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N242" s="2" t="s">
@@ -18516,7 +18516,7 @@
       </c>
       <c r="K247" s="2"/>
       <c r="L247" s="4"/>
-      <c r="M247" s="2" t="s">
+      <c r="M247" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N247" s="2" t="s">
@@ -18718,7 +18718,7 @@
         <v>962</v>
       </c>
       <c r="L251" s="4"/>
-      <c r="M251" s="2" t="s">
+      <c r="M251" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N251" s="2" t="s">
@@ -18930,7 +18930,7 @@
         <v>963</v>
       </c>
       <c r="L255" s="4"/>
-      <c r="M255" s="2" t="s">
+      <c r="M255" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N255" s="2" t="s">
@@ -19078,7 +19078,7 @@
       </c>
       <c r="K258" s="2"/>
       <c r="L258" s="4"/>
-      <c r="M258" s="2" t="s">
+      <c r="M258" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N258" s="2" t="s">
@@ -19396,7 +19396,7 @@
         <v>964</v>
       </c>
       <c r="L264" s="4"/>
-      <c r="M264" s="2" t="s">
+      <c r="M264" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N264" s="2" t="s">
@@ -19698,7 +19698,7 @@
       </c>
       <c r="K270" s="2"/>
       <c r="L270" s="4"/>
-      <c r="M270" s="2" t="s">
+      <c r="M270" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N270" s="2" t="s">
@@ -20066,7 +20066,7 @@
         <v>966</v>
       </c>
       <c r="L277" s="4"/>
-      <c r="M277" s="2" t="s">
+      <c r="M277" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N277" s="2" t="s">
@@ -20382,7 +20382,7 @@
         <v>964</v>
       </c>
       <c r="L283" s="4"/>
-      <c r="M283" s="2" t="s">
+      <c r="M283" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N283" s="2" t="s">
@@ -20694,7 +20694,7 @@
         <v>967</v>
       </c>
       <c r="L289" s="4"/>
-      <c r="M289" s="2" t="s">
+      <c r="M289" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N289" s="2" t="s">
@@ -20842,7 +20842,7 @@
       </c>
       <c r="K292" s="2"/>
       <c r="L292" s="4"/>
-      <c r="M292" s="2" t="s">
+      <c r="M292" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N292" s="2" t="s">
@@ -21004,7 +21004,7 @@
       </c>
       <c r="K295" s="2"/>
       <c r="L295" s="4"/>
-      <c r="M295" s="2" t="s">
+      <c r="M295" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N295" s="2" t="s">
@@ -21222,7 +21222,7 @@
         <v>969</v>
       </c>
       <c r="L299" s="4"/>
-      <c r="M299" s="2" t="s">
+      <c r="M299" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N299" s="2" t="s">
@@ -21632,7 +21632,7 @@
       </c>
       <c r="K307" s="2"/>
       <c r="L307" s="4"/>
-      <c r="M307" s="2" t="s">
+      <c r="M307" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N307" s="2" t="s">
@@ -21778,7 +21778,7 @@
       </c>
       <c r="K310" s="2"/>
       <c r="L310" s="4"/>
-      <c r="M310" s="2" t="s">
+      <c r="M310" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N310" s="2" t="s">
@@ -22042,7 +22042,7 @@
         <v>960</v>
       </c>
       <c r="L315" s="4"/>
-      <c r="M315" s="2" t="s">
+      <c r="M315" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N315" s="2" t="s">
@@ -22190,7 +22190,7 @@
       </c>
       <c r="K318" s="2"/>
       <c r="L318" s="4"/>
-      <c r="M318" s="2" t="s">
+      <c r="M318" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N318" s="2" t="s">
@@ -22352,7 +22352,7 @@
       </c>
       <c r="K321" s="2"/>
       <c r="L321" s="4"/>
-      <c r="M321" s="2" t="s">
+      <c r="M321" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N321" s="2" t="s">
@@ -22564,7 +22564,7 @@
       </c>
       <c r="K325" s="2"/>
       <c r="L325" s="4"/>
-      <c r="M325" s="2" t="s">
+      <c r="M325" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N325" s="2" t="s">
@@ -22760,7 +22760,7 @@
       </c>
       <c r="K329" s="2"/>
       <c r="L329" s="4"/>
-      <c r="M329" s="2" t="s">
+      <c r="M329" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N329" s="2" t="s">
@@ -22904,7 +22904,7 @@
         <v>970</v>
       </c>
       <c r="L332" s="4"/>
-      <c r="M332" s="2" t="s">
+      <c r="M332" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N332" s="2" t="s">
@@ -23052,7 +23052,7 @@
       </c>
       <c r="K335" s="2"/>
       <c r="L335" s="4"/>
-      <c r="M335" s="2" t="s">
+      <c r="M335" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N335" s="2" t="s">
@@ -23270,7 +23270,7 @@
         <v>971</v>
       </c>
       <c r="L339" s="4"/>
-      <c r="M339" s="2" t="s">
+      <c r="M339" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N339" s="2" t="s">
@@ -23420,7 +23420,7 @@
         <v>972</v>
       </c>
       <c r="L342" s="4"/>
-      <c r="M342" s="2" t="s">
+      <c r="M342" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N342" s="2" t="s">
@@ -23582,7 +23582,7 @@
         <v>973</v>
       </c>
       <c r="L345" s="4"/>
-      <c r="M345" s="2" t="s">
+      <c r="M345" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N345" s="2" t="s">
@@ -23844,7 +23844,7 @@
         <v>975</v>
       </c>
       <c r="L350" s="4"/>
-      <c r="M350" s="2" t="s">
+      <c r="M350" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N350" s="2" t="s">
@@ -24044,7 +24044,7 @@
         <v>964</v>
       </c>
       <c r="L354" s="4"/>
-      <c r="M354" s="2" t="s">
+      <c r="M354" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N354" s="2" t="s">
@@ -24348,7 +24348,7 @@
         <v>976</v>
       </c>
       <c r="L360" s="4"/>
-      <c r="M360" s="2" t="s">
+      <c r="M360" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N360" s="2" t="s">
@@ -24606,7 +24606,7 @@
         <v>977</v>
       </c>
       <c r="L365" s="4"/>
-      <c r="M365" s="2" t="s">
+      <c r="M365" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N365" s="2" t="s">
@@ -24754,7 +24754,7 @@
       </c>
       <c r="K368" s="2"/>
       <c r="L368" s="4"/>
-      <c r="M368" s="2" t="s">
+      <c r="M368" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N368" s="2" t="s">
@@ -24916,7 +24916,7 @@
       </c>
       <c r="K371" s="2"/>
       <c r="L371" s="4"/>
-      <c r="M371" s="2" t="s">
+      <c r="M371" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N371" s="2" t="s">
@@ -25132,7 +25132,7 @@
       </c>
       <c r="K375" s="2"/>
       <c r="L375" s="4"/>
-      <c r="M375" s="2" t="s">
+      <c r="M375" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N375" s="2" t="s">
@@ -25278,7 +25278,7 @@
       </c>
       <c r="K378" s="2"/>
       <c r="L378" s="4"/>
-      <c r="M378" s="2" t="s">
+      <c r="M378" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N378" s="2" t="s">
@@ -25434,7 +25434,7 @@
         <v>979</v>
       </c>
       <c r="L381" s="4"/>
-      <c r="M381" s="2" t="s">
+      <c r="M381" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N381" s="2" t="s">
@@ -25582,7 +25582,7 @@
       </c>
       <c r="K384" s="2"/>
       <c r="L384" s="4"/>
-      <c r="M384" s="2" t="s">
+      <c r="M384" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N384" s="2" t="s">
@@ -25746,7 +25746,7 @@
         <v>980</v>
       </c>
       <c r="L387" s="4"/>
-      <c r="M387" s="2" t="s">
+      <c r="M387" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N387" s="2" t="s">
@@ -25912,7 +25912,7 @@
         <v>981</v>
       </c>
       <c r="L390" s="4"/>
-      <c r="M390" s="2" t="s">
+      <c r="M390" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N390" s="2" t="s">
@@ -26078,7 +26078,7 @@
         <v>982</v>
       </c>
       <c r="L393" s="4"/>
-      <c r="M393" s="2" t="s">
+      <c r="M393" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N393" s="2" t="s">
@@ -26244,7 +26244,7 @@
         <v>983</v>
       </c>
       <c r="L396" s="4"/>
-      <c r="M396" s="2" t="s">
+      <c r="M396" s="3" t="s">
         <v>100</v>
       </c>
       <c r="N396" s="2" t="s">
@@ -26406,7 +26406,7 @@
         <v>984</v>
       </c>
       <c r="L399" s="4"/>
-      <c r="M399" s="2" t="s">
+      <c r="M399" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N399" s="2" t="s">
@@ -26664,7 +26664,7 @@
         <v>985</v>
       </c>
       <c r="L404" s="4"/>
-      <c r="M404" s="2" t="s">
+      <c r="M404" s="3" t="s">
         <v>102</v>
       </c>
       <c r="N404" s="2" t="s">
@@ -26922,7 +26922,7 @@
         <v>984</v>
       </c>
       <c r="L409" s="4"/>
-      <c r="M409" s="2" t="s">
+      <c r="M409" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N409" s="2" t="s">
@@ -27178,7 +27178,7 @@
       </c>
       <c r="K414" s="2"/>
       <c r="L414" s="4"/>
-      <c r="M414" s="2" t="s">
+      <c r="M414" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N414" s="2" t="s">
@@ -27434,7 +27434,7 @@
         <v>986</v>
       </c>
       <c r="L419" s="4"/>
-      <c r="M419" s="2" t="s">
+      <c r="M419" s="3" t="s">
         <v>105</v>
       </c>
       <c r="N419" s="2" t="s">
@@ -27758,7 +27758,7 @@
         <v>984</v>
       </c>
       <c r="L425" s="4"/>
-      <c r="M425" s="2" t="s">
+      <c r="M425" s="3" t="s">
         <v>106</v>
       </c>
       <c r="N425" s="2" t="s">
@@ -28024,7 +28024,7 @@
         <v>987</v>
       </c>
       <c r="L430" s="4"/>
-      <c r="M430" s="2" t="s">
+      <c r="M430" s="3" t="s">
         <v>107</v>
       </c>
       <c r="N430" s="2" t="s">
@@ -28172,7 +28172,7 @@
       </c>
       <c r="K433" s="2"/>
       <c r="L433" s="4"/>
-      <c r="M433" s="2" t="s">
+      <c r="M433" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N433" s="2" t="s">
@@ -28330,7 +28330,7 @@
       </c>
       <c r="K436" s="2"/>
       <c r="L436" s="4"/>
-      <c r="M436" s="2" t="s">
+      <c r="M436" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N436" s="2" t="s">
@@ -28476,7 +28476,7 @@
       </c>
       <c r="K439" s="2"/>
       <c r="L439" s="4"/>
-      <c r="M439" s="2" t="s">
+      <c r="M439" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N439" s="2" t="s">
@@ -28688,7 +28688,7 @@
       </c>
       <c r="K443" s="2"/>
       <c r="L443" s="4"/>
-      <c r="M443" s="2" t="s">
+      <c r="M443" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N443" s="2" t="s">
@@ -28834,7 +28834,7 @@
       </c>
       <c r="K446" s="2"/>
       <c r="L446" s="4"/>
-      <c r="M446" s="2" t="s">
+      <c r="M446" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N446" s="2" t="s">
@@ -29156,7 +29156,7 @@
         <v>988</v>
       </c>
       <c r="L452" s="4"/>
-      <c r="M452" s="2" t="s">
+      <c r="M452" s="3" t="s">
         <v>110</v>
       </c>
       <c r="N452" s="2" t="s">
@@ -29304,7 +29304,7 @@
       </c>
       <c r="K455" s="2"/>
       <c r="L455" s="4"/>
-      <c r="M455" s="2" t="s">
+      <c r="M455" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N455" s="2" t="s">
@@ -29466,7 +29466,7 @@
       </c>
       <c r="K458" s="2"/>
       <c r="L458" s="4"/>
-      <c r="M458" s="2" t="s">
+      <c r="M458" s="3" t="s">
         <v>110</v>
       </c>
       <c r="N458" s="2" t="s">
@@ -29678,7 +29678,7 @@
       </c>
       <c r="K462" s="2"/>
       <c r="L462" s="4"/>
-      <c r="M462" s="2" t="s">
+      <c r="M462" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N462" s="2" t="s">
@@ -29928,7 +29928,7 @@
       </c>
       <c r="K467" s="2"/>
       <c r="L467" s="4"/>
-      <c r="M467" s="2" t="s">
+      <c r="M467" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N467" s="2" t="s">
@@ -30282,7 +30282,7 @@
       </c>
       <c r="K474" s="2"/>
       <c r="L474" s="4"/>
-      <c r="M474" s="2" t="s">
+      <c r="M474" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N474" s="2" t="s">
@@ -30426,7 +30426,7 @@
         <v>989</v>
       </c>
       <c r="L477" s="4"/>
-      <c r="M477" s="2" t="s">
+      <c r="M477" s="3" t="s">
         <v>111</v>
       </c>
       <c r="N477" s="2" t="s">
@@ -30574,7 +30574,7 @@
       </c>
       <c r="K480" s="2"/>
       <c r="L480" s="4"/>
-      <c r="M480" s="2" t="s">
+      <c r="M480" s="3" t="s">
         <v>112</v>
       </c>
       <c r="N480" s="2" t="s">
@@ -30738,7 +30738,7 @@
         <v>990</v>
       </c>
       <c r="L483" s="4"/>
-      <c r="M483" s="2" t="s">
+      <c r="M483" s="3" t="s">
         <v>113</v>
       </c>
       <c r="N483" s="2" t="s">
@@ -30894,7 +30894,7 @@
       </c>
       <c r="K486" s="2"/>
       <c r="L486" s="4"/>
-      <c r="M486" s="2" t="s">
+      <c r="M486" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N486" s="2" t="s">
@@ -31040,7 +31040,7 @@
       </c>
       <c r="K489" s="2"/>
       <c r="L489" s="4"/>
-      <c r="M489" s="2" t="s">
+      <c r="M489" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N489" s="2" t="s">
@@ -31476,7 +31476,7 @@
       </c>
       <c r="K497" s="2"/>
       <c r="L497" s="4"/>
-      <c r="M497" s="2" t="s">
+      <c r="M497" s="3" t="s">
         <v>114</v>
       </c>
       <c r="N497" s="2" t="s">
@@ -31630,7 +31630,7 @@
       </c>
       <c r="K500" s="2"/>
       <c r="L500" s="4"/>
-      <c r="M500" s="2" t="s">
+      <c r="M500" s="3" t="s">
         <v>115</v>
       </c>
       <c r="N500" s="2" t="s">
@@ -32040,7 +32040,7 @@
         <v>991</v>
       </c>
       <c r="L508" s="4"/>
-      <c r="M508" s="2" t="s">
+      <c r="M508" s="3" t="s">
         <v>116</v>
       </c>
       <c r="N508" s="2" t="s">
@@ -32188,7 +32188,7 @@
       </c>
       <c r="K511" s="2"/>
       <c r="L511" s="4"/>
-      <c r="M511" s="2" t="s">
+      <c r="M511" s="3" t="s">
         <v>117</v>
       </c>
       <c r="N511" s="2" t="s">
@@ -32352,7 +32352,7 @@
         <v>992</v>
       </c>
       <c r="L514" s="4"/>
-      <c r="M514" s="2" t="s">
+      <c r="M514" s="3" t="s">
         <v>118</v>
       </c>
       <c r="N514" s="2" t="s">
@@ -32508,7 +32508,7 @@
       </c>
       <c r="K517" s="2"/>
       <c r="L517" s="4"/>
-      <c r="M517" s="2" t="s">
+      <c r="M517" s="3" t="s">
         <v>119</v>
       </c>
       <c r="N517" s="2" t="s">
@@ -33360,7 +33360,7 @@
       </c>
       <c r="K533" s="2"/>
       <c r="L533" s="4"/>
-      <c r="M533" s="2" t="s">
+      <c r="M533" s="3" t="s">
         <v>120</v>
       </c>
       <c r="N533" s="2" t="s">
@@ -33520,7 +33520,7 @@
         <v>994</v>
       </c>
       <c r="L536" s="4"/>
-      <c r="M536" s="2" t="s">
+      <c r="M536" s="3" t="s">
         <v>121</v>
       </c>
       <c r="N536" s="2" t="s">
@@ -33734,7 +33734,7 @@
       </c>
       <c r="K540" s="2"/>
       <c r="L540" s="4"/>
-      <c r="M540" s="2" t="s">
+      <c r="M540" s="3" t="s">
         <v>122</v>
       </c>
       <c r="N540" s="2" t="s">
@@ -33892,7 +33892,7 @@
       </c>
       <c r="K543" s="2"/>
       <c r="L543" s="4"/>
-      <c r="M543" s="2" t="s">
+      <c r="M543" s="3" t="s">
         <v>123</v>
       </c>
       <c r="N543" s="2" t="s">
@@ -34106,7 +34106,7 @@
         <v>995</v>
       </c>
       <c r="L547" s="4"/>
-      <c r="M547" s="2" t="s">
+      <c r="M547" s="3" t="s">
         <v>124</v>
       </c>
       <c r="N547" s="2" t="s">
@@ -34410,7 +34410,7 @@
         <v>996</v>
       </c>
       <c r="L553" s="4"/>
-      <c r="M553" s="2" t="s">
+      <c r="M553" s="3" t="s">
         <v>125</v>
       </c>
       <c r="N553" s="2" t="s">
@@ -34560,7 +34560,7 @@
         <v>997</v>
       </c>
       <c r="L556" s="4"/>
-      <c r="M556" s="2" t="s">
+      <c r="M556" s="3" t="s">
         <v>126</v>
       </c>
       <c r="N556" s="2" t="s">
@@ -34778,7 +34778,7 @@
       </c>
       <c r="K560" s="2"/>
       <c r="L560" s="4"/>
-      <c r="M560" s="2" t="s">
+      <c r="M560" s="3" t="s">
         <v>117</v>
       </c>
       <c r="N560" s="2" t="s">
@@ -34942,7 +34942,7 @@
         <v>999</v>
       </c>
       <c r="L563" s="4"/>
-      <c r="M563" s="2" t="s">
+      <c r="M563" s="3" t="s">
         <v>127</v>
       </c>
       <c r="N563" s="2" t="s">
@@ -35102,7 +35102,7 @@
       </c>
       <c r="K566" s="2"/>
       <c r="L566" s="4"/>
-      <c r="M566" s="2" t="s">
+      <c r="M566" s="3" t="s">
         <v>128</v>
       </c>
       <c r="N566" s="2" t="s">
@@ -35320,7 +35320,7 @@
         <v>1001</v>
       </c>
       <c r="L570" s="4"/>
-      <c r="M570" s="2" t="s">
+      <c r="M570" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N570" s="2" t="s">
@@ -35732,7 +35732,7 @@
         <v>1002</v>
       </c>
       <c r="L578" s="4"/>
-      <c r="M578" s="2" t="s">
+      <c r="M578" s="3" t="s">
         <v>129</v>
       </c>
       <c r="N578" s="2" t="s">
@@ -36090,7 +36090,7 @@
         <v>1003</v>
       </c>
       <c r="L585" s="4"/>
-      <c r="M585" s="2" t="s">
+      <c r="M585" s="3" t="s">
         <v>130</v>
       </c>
       <c r="N585" s="2" t="s">
@@ -36290,7 +36290,7 @@
         <v>1004</v>
       </c>
       <c r="L589" s="4"/>
-      <c r="M589" s="2" t="s">
+      <c r="M589" s="3" t="s">
         <v>131</v>
       </c>
       <c r="N589" s="2" t="s">
@@ -36438,7 +36438,7 @@
       </c>
       <c r="K592" s="2"/>
       <c r="L592" s="4"/>
-      <c r="M592" s="2" t="s">
+      <c r="M592" s="3" t="s">
         <v>126</v>
       </c>
       <c r="N592" s="2" t="s">
@@ -36592,7 +36592,7 @@
       </c>
       <c r="K595" s="2"/>
       <c r="L595" s="4"/>
-      <c r="M595" s="2" t="s">
+      <c r="M595" s="3" t="s">
         <v>132</v>
       </c>
       <c r="N595" s="2" t="s">
@@ -36740,7 +36740,7 @@
         <v>1005</v>
       </c>
       <c r="L598" s="4"/>
-      <c r="M598" s="2" t="s">
+      <c r="M598" s="3" t="s">
         <v>120</v>
       </c>
       <c r="N598" s="2" t="s">
@@ -36900,7 +36900,7 @@
       </c>
       <c r="K601" s="2"/>
       <c r="L601" s="4"/>
-      <c r="M601" s="2" t="s">
+      <c r="M601" s="3" t="s">
         <v>133</v>
       </c>
       <c r="N601" s="2" t="s">
@@ -37222,7 +37222,7 @@
         <v>1007</v>
       </c>
       <c r="L607" s="4"/>
-      <c r="M607" s="2" t="s">
+      <c r="M607" s="3" t="s">
         <v>134</v>
       </c>
       <c r="N607" s="2" t="s">
@@ -37370,7 +37370,7 @@
       </c>
       <c r="K610" s="2"/>
       <c r="L610" s="4"/>
-      <c r="M610" s="2" t="s">
+      <c r="M610" s="3" t="s">
         <v>126</v>
       </c>
       <c r="N610" s="2" t="s">
@@ -37524,7 +37524,7 @@
       </c>
       <c r="K613" s="2"/>
       <c r="L613" s="4"/>
-      <c r="M613" s="2" t="s">
+      <c r="M613" s="3" t="s">
         <v>135</v>
       </c>
       <c r="N613" s="2" t="s">
@@ -37670,7 +37670,7 @@
       </c>
       <c r="K616" s="2"/>
       <c r="L616" s="4"/>
-      <c r="M616" s="2" t="s">
+      <c r="M616" s="3" t="s">
         <v>120</v>
       </c>
       <c r="N616" s="2" t="s">
@@ -37828,7 +37828,7 @@
       </c>
       <c r="K619" s="2"/>
       <c r="L619" s="4"/>
-      <c r="M619" s="2" t="s">
+      <c r="M619" s="3" t="s">
         <v>136</v>
       </c>
       <c r="N619" s="2" t="s">
@@ -38200,7 +38200,7 @@
         <v>1004</v>
       </c>
       <c r="L626" s="4"/>
-      <c r="M626" s="2" t="s">
+      <c r="M626" s="3" t="s">
         <v>137</v>
       </c>
       <c r="N626" s="2" t="s">
@@ -38348,7 +38348,7 @@
       </c>
       <c r="K629" s="2"/>
       <c r="L629" s="4"/>
-      <c r="M629" s="2" t="s">
+      <c r="M629" s="3" t="s">
         <v>126</v>
       </c>
       <c r="N629" s="2" t="s">
@@ -38502,7 +38502,7 @@
       </c>
       <c r="K632" s="2"/>
       <c r="L632" s="4"/>
-      <c r="M632" s="2" t="s">
+      <c r="M632" s="3" t="s">
         <v>138</v>
       </c>
       <c r="N632" s="2" t="s">
@@ -38648,7 +38648,7 @@
       </c>
       <c r="K635" s="2"/>
       <c r="L635" s="4"/>
-      <c r="M635" s="2" t="s">
+      <c r="M635" s="3" t="s">
         <v>120</v>
       </c>
       <c r="N635" s="2" t="s">
@@ -38806,7 +38806,7 @@
       </c>
       <c r="K638" s="2"/>
       <c r="L638" s="4"/>
-      <c r="M638" s="2" t="s">
+      <c r="M638" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N638" s="2" t="s">
@@ -38962,7 +38962,7 @@
         <v>1004</v>
       </c>
       <c r="L641" s="4"/>
-      <c r="M641" s="2" t="s">
+      <c r="M641" s="3" t="s">
         <v>140</v>
       </c>
       <c r="N641" s="2" t="s">
@@ -39252,7 +39252,7 @@
       </c>
       <c r="K647" s="2"/>
       <c r="L647" s="4"/>
-      <c r="M647" s="2" t="s">
+      <c r="M647" s="3" t="s">
         <v>120</v>
       </c>
       <c r="N647" s="2" t="s">
@@ -39412,7 +39412,7 @@
         <v>1009</v>
       </c>
       <c r="L650" s="4"/>
-      <c r="M650" s="2" t="s">
+      <c r="M650" s="3" t="s">
         <v>141</v>
       </c>
       <c r="N650" s="2" t="s">
@@ -39560,7 +39560,7 @@
       </c>
       <c r="K653" s="2"/>
       <c r="L653" s="4"/>
-      <c r="M653" s="2" t="s">
+      <c r="M653" s="3" t="s">
         <v>118</v>
       </c>
       <c r="N653" s="2" t="s">
@@ -39718,7 +39718,7 @@
       </c>
       <c r="K656" s="2"/>
       <c r="L656" s="4"/>
-      <c r="M656" s="2" t="s">
+      <c r="M656" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N656" s="2" t="s">
@@ -39876,7 +39876,7 @@
       </c>
       <c r="K659" s="2"/>
       <c r="L659" s="4"/>
-      <c r="M659" s="2" t="s">
+      <c r="M659" s="3" t="s">
         <v>142</v>
       </c>
       <c r="N659" s="2" t="s">
@@ -40022,7 +40022,7 @@
       </c>
       <c r="K662" s="2"/>
       <c r="L662" s="4"/>
-      <c r="M662" s="2" t="s">
+      <c r="M662" s="3" t="s">
         <v>120</v>
       </c>
       <c r="N662" s="2" t="s">
@@ -40182,7 +40182,7 @@
         <v>1010</v>
       </c>
       <c r="L665" s="4"/>
-      <c r="M665" s="2" t="s">
+      <c r="M665" s="3" t="s">
         <v>143</v>
       </c>
       <c r="N665" s="2" t="s">
@@ -40330,7 +40330,7 @@
       </c>
       <c r="K668" s="2"/>
       <c r="L668" s="4"/>
-      <c r="M668" s="2" t="s">
+      <c r="M668" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N668" s="2" t="s">
@@ -40488,7 +40488,7 @@
       </c>
       <c r="K671" s="2"/>
       <c r="L671" s="4"/>
-      <c r="M671" s="2" t="s">
+      <c r="M671" s="3" t="s">
         <v>144</v>
       </c>
       <c r="N671" s="2" t="s">
@@ -40790,7 +40790,7 @@
         <v>1011</v>
       </c>
       <c r="L677" s="4"/>
-      <c r="M677" s="2" t="s">
+      <c r="M677" s="3" t="s">
         <v>145</v>
       </c>
       <c r="N677" s="2" t="s">
@@ -40938,7 +40938,7 @@
       </c>
       <c r="K680" s="2"/>
       <c r="L680" s="4"/>
-      <c r="M680" s="2" t="s">
+      <c r="M680" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N680" s="2" t="s">
@@ -41096,7 +41096,7 @@
       </c>
       <c r="K683" s="2"/>
       <c r="L683" s="4"/>
-      <c r="M683" s="2" t="s">
+      <c r="M683" s="3" t="s">
         <v>146</v>
       </c>
       <c r="N683" s="2" t="s">
@@ -41338,7 +41338,7 @@
       </c>
       <c r="K688" s="2"/>
       <c r="L688" s="4"/>
-      <c r="M688" s="2" t="s">
+      <c r="M688" s="3" t="s">
         <v>144</v>
       </c>
       <c r="N688" s="2" t="s">
@@ -41692,7 +41692,7 @@
       </c>
       <c r="K695" s="2"/>
       <c r="L695" s="4"/>
-      <c r="M695" s="2" t="s">
+      <c r="M695" s="3" t="s">
         <v>147</v>
       </c>
       <c r="N695" s="2" t="s">
@@ -42114,7 +42114,7 @@
         <v>1013</v>
       </c>
       <c r="L703" s="4"/>
-      <c r="M703" s="2" t="s">
+      <c r="M703" s="3" t="s">
         <v>148</v>
       </c>
       <c r="N703" s="2" t="s">
@@ -42262,7 +42262,7 @@
       </c>
       <c r="K706" s="2"/>
       <c r="L706" s="4"/>
-      <c r="M706" s="2" t="s">
+      <c r="M706" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N706" s="2" t="s">
@@ -42420,7 +42420,7 @@
       </c>
       <c r="K709" s="2"/>
       <c r="L709" s="4"/>
-      <c r="M709" s="2" t="s">
+      <c r="M709" s="3" t="s">
         <v>149</v>
       </c>
       <c r="N709" s="2" t="s">
@@ -42664,7 +42664,7 @@
         <v>1014</v>
       </c>
       <c r="L714" s="4"/>
-      <c r="M714" s="2" t="s">
+      <c r="M714" s="3" t="s">
         <v>150</v>
       </c>
       <c r="N714" s="2" t="s">
@@ -43084,7 +43084,7 @@
       </c>
       <c r="K722" s="2"/>
       <c r="L722" s="4"/>
-      <c r="M722" s="2" t="s">
+      <c r="M722" s="3" t="s">
         <v>151</v>
       </c>
       <c r="N722" s="2"/>
